--- a/orden2.xlsx
+++ b/orden2.xlsx
@@ -115,7 +115,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -186,11 +186,25 @@
       <bottom style="medium"/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="1" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -238,6 +252,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -571,7 +591,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -834,10 +854,10 @@
         <v>Item</v>
       </c>
       <c r="B50" s="20" t="str">
-        <v>Código</v>
+        <v>Codigo</v>
       </c>
       <c r="C50" s="20" t="str">
-        <v>Descripción</v>
+        <v>Descripcion</v>
       </c>
       <c r="D50" s="20" t="str">
         <v/>
@@ -858,8 +878,95 @@
         <v>ITBIS</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" s="21" t="str">
+        <v>1</v>
+      </c>
+      <c r="B51" s="21" t="str">
+        <v>01</v>
+      </c>
+      <c r="C51" s="21" t="str">
+        <v>d1</v>
+      </c>
+      <c r="D51" s="21" t="str">
+        <v/>
+      </c>
+      <c r="E51" s="21" t="str">
+        <v/>
+      </c>
+      <c r="F51" s="21">
+        <v>1</v>
+      </c>
+      <c r="G51" s="21" t="str">
+        <v>UD</v>
+      </c>
+      <c r="H51" s="22">
+        <v>1</v>
+      </c>
+      <c r="I51" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="21" t="str">
+        <v>2</v>
+      </c>
+      <c r="B52" s="21" t="str">
+        <v>02</v>
+      </c>
+      <c r="C52" s="21" t="str">
+        <v>d2</v>
+      </c>
+      <c r="D52" s="21" t="str">
+        <v/>
+      </c>
+      <c r="E52" s="21" t="str">
+        <v/>
+      </c>
+      <c r="F52" s="21">
+        <v>2</v>
+      </c>
+      <c r="G52" s="21" t="str">
+        <v>UD</v>
+      </c>
+      <c r="H52" s="22">
+        <v>2</v>
+      </c>
+      <c r="I52" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="21" t="str">
+        <v>3</v>
+      </c>
+      <c r="B53" s="21" t="str">
+        <v>03</v>
+      </c>
+      <c r="C53" s="21" t="str">
+        <v>d3</v>
+      </c>
+      <c r="D53" s="21" t="str">
+        <v/>
+      </c>
+      <c r="E53" s="21" t="str">
+        <v/>
+      </c>
+      <c r="F53" s="21">
+        <v>3</v>
+      </c>
+      <c r="G53" s="21" t="str">
+        <v>UD</v>
+      </c>
+      <c r="H53" s="22">
+        <v>3</v>
+      </c>
+      <c r="I53" s="22">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="49">
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="G4:I4"/>
@@ -895,8 +1002,6 @@
     <mergeCell ref="C29:I29"/>
     <mergeCell ref="C30:I30"/>
     <mergeCell ref="C31:I31"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="F38:I38"/>
@@ -904,10 +1009,17 @@
     <mergeCell ref="F42:I42"/>
     <mergeCell ref="C44:G44"/>
     <mergeCell ref="A48:I48"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
   </mergeCells>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0" footer="0"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I53"/>
   </ignoredErrors>
 </worksheet>
 </file>